--- a/BigBasket-Project001.xlsx
+++ b/BigBasket-Project001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="483">
   <si>
     <t>Project Name</t>
   </si>
@@ -115,7 +115,7 @@
     <t>TS_007</t>
   </si>
   <si>
-    <t>Verify/select location button functionality</t>
+    <t>Verify Select location button functionality</t>
   </si>
   <si>
     <t>TS_008</t>
@@ -127,79 +127,115 @@
     <t>TS_009</t>
   </si>
   <si>
+    <t>Verify Deals of the week button</t>
+  </si>
+  <si>
+    <t>TS_010</t>
+  </si>
+  <si>
+    <t>Verify contact us page functionality</t>
+  </si>
+  <si>
+    <t>TS_011</t>
+  </si>
+  <si>
     <t>Verify product image clickability</t>
   </si>
   <si>
-    <t>TS_010</t>
+    <t>TS_012</t>
   </si>
   <si>
     <t>Verify spelling of the content</t>
   </si>
   <si>
-    <t>TS_011</t>
+    <t>TS_013</t>
   </si>
   <si>
     <t>Verify about us button functionality</t>
   </si>
   <si>
-    <t>TS_012</t>
+    <t>TS_014</t>
   </si>
   <si>
     <t>Verify the readability of the content</t>
   </si>
   <si>
-    <t>TS_013</t>
+    <t>TS_015</t>
   </si>
   <si>
     <t>Verify the add button color</t>
   </si>
   <si>
-    <t>TS_014</t>
+    <t>TS_016</t>
   </si>
   <si>
     <t>Verify Search textfield placeholder</t>
   </si>
   <si>
-    <t>TS_015</t>
+    <t>TS_017</t>
   </si>
   <si>
     <t>Verify Search textfield border color</t>
   </si>
   <si>
-    <t>TS_016</t>
+    <t>TS_018</t>
   </si>
   <si>
     <t>Verify the font color of placeholder of the search textfield</t>
   </si>
   <si>
-    <t>TS_017</t>
+    <t>TS_019</t>
   </si>
   <si>
     <t>Verify font color of the product details</t>
   </si>
   <si>
-    <t>TS_018</t>
+    <t>TS_020</t>
   </si>
   <si>
     <t xml:space="preserve">Verify background color of Shop by category button </t>
   </si>
   <si>
-    <t>TS_019</t>
+    <t>TS_021</t>
   </si>
   <si>
     <t>Verify the font size of Shop by category button</t>
   </si>
   <si>
-    <t>TS_020</t>
+    <t>TS_022</t>
   </si>
   <si>
     <t>Verify the spelling of the company name</t>
   </si>
   <si>
-    <t>TS_021</t>
+    <t>TS_023</t>
   </si>
   <si>
     <t>Verify the Logo of the company</t>
+  </si>
+  <si>
+    <t>TS_024</t>
+  </si>
+  <si>
+    <t>Verify the product image quality</t>
+  </si>
+  <si>
+    <t>TS_025</t>
+  </si>
+  <si>
+    <t>Verify the clickability of the Contact us button</t>
+  </si>
+  <si>
+    <t>TS_026</t>
+  </si>
+  <si>
+    <t>Verify the compatibility of the web application</t>
+  </si>
+  <si>
+    <t>TS_027</t>
+  </si>
+  <si>
+    <t>Verify the performance of the web application</t>
   </si>
   <si>
     <t>Test case ID</t>
@@ -766,19 +802,13 @@
     <t>The wrong Password is accepted and also user is able to login successfully</t>
   </si>
   <si>
-    <t>GUI - TESTING</t>
-  </si>
-  <si>
-    <t>Test performed by</t>
-  </si>
-  <si>
-    <t>TC_GUI_001</t>
-  </si>
-  <si>
-    <t>To verify product image clickability</t>
-  </si>
-  <si>
-    <t>verify if products image on homepage is clickable or not</t>
+    <t>TC_DOWB_015</t>
+  </si>
+  <si>
+    <t>To verify Deals of the week button</t>
+  </si>
+  <si>
+    <t>Verify Deals of the week button is working fine or not</t>
   </si>
   <si>
     <r>
@@ -798,22 +828,23 @@
     </r>
   </si>
   <si>
-    <t>1. click on any product's image on the homepage</t>
-  </si>
-  <si>
-    <t>The product's image on the homepage should be clickable</t>
-  </si>
-  <si>
-    <t>The product's image on the homepage is not clickable except 4 most purchased products</t>
-  </si>
-  <si>
-    <t>TC_GUI_002</t>
-  </si>
-  <si>
-    <t>To verify spelling of the content</t>
-  </si>
-  <si>
-    <t>verify the spelling of the content on the homepage</t>
+    <t>1. Click on the DEALS OF THE WEEK button
+2. Check after clicking on the button user is redirected to the Deals of the week page or not</t>
+  </si>
+  <si>
+    <t>The DEALS OF THE WEEK button should redirected the user to the deals of the week page</t>
+  </si>
+  <si>
+    <t>When the user clicks on the DEALS OF THE WEEK button the web application is reloading but not displaying the deals of the week page</t>
+  </si>
+  <si>
+    <t>TC_CUPF_016</t>
+  </si>
+  <si>
+    <t>To verify contact us page functionality</t>
+  </si>
+  <si>
+    <t>Verify if the name textfield of contact us page is accepting invalid name or not</t>
   </si>
   <si>
     <r>
@@ -833,19 +864,23 @@
     </r>
   </si>
   <si>
-    <t>The spelling of the content on the homepage should be correct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The spelling of Purchased is incorrect, in Most Purchased heading it is showing - Purchesed </t>
-  </si>
-  <si>
-    <t>TC_GUI_003</t>
-  </si>
-  <si>
-    <t>To verify about us button</t>
-  </si>
-  <si>
-    <t>verify about us button redirecting the user to another page or not</t>
+    <t>1. click on contact us button
+2. Enter the invalid or inappropriate name in the name textfield</t>
+  </si>
+  <si>
+    <t>Name - kjjkjkj</t>
+  </si>
+  <si>
+    <t>The name textfield should not accept invalid name</t>
+  </si>
+  <si>
+    <t>The name textfield is accepting invalid name</t>
+  </si>
+  <si>
+    <t>TC_CUPF_017</t>
+  </si>
+  <si>
+    <t>Verify if the email textfield of contact us page is accepting invalid email id or not</t>
   </si>
   <si>
     <r>
@@ -865,19 +900,22 @@
     </r>
   </si>
   <si>
-    <t>The about us page should be displayed whenever the user clicks on about us button</t>
-  </si>
-  <si>
-    <t>The about us page is not displayed it shows the same page</t>
-  </si>
-  <si>
-    <t>TC_GUI_004</t>
-  </si>
-  <si>
-    <t>To verify the readability of the content</t>
-  </si>
-  <si>
-    <t>Verify if the products name is readable or not</t>
+    <t>1. Enter the invalid email id in the email textfield</t>
+  </si>
+  <si>
+    <t>email - jahjah@gmail.com</t>
+  </si>
+  <si>
+    <t>The email textfield should not accept invalid email id</t>
+  </si>
+  <si>
+    <t>The email textfield is accepting invalid email id</t>
+  </si>
+  <si>
+    <t>TC_CUPF_018</t>
+  </si>
+  <si>
+    <t>Verify if the Phone textfield of contact us page is accepting invalid phone number or not</t>
   </si>
   <si>
     <r>
@@ -897,19 +935,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">The products name should be readable </t>
-  </si>
-  <si>
-    <t>Some products name font size is very small and blurred which is not readable by the user</t>
-  </si>
-  <si>
-    <t>TC_GUI_005</t>
-  </si>
-  <si>
-    <t>To verify the add button color</t>
-  </si>
-  <si>
-    <t>Verify if the add button's color is changed or not whenever the user hovers the mouse to it</t>
+    <t>1. Enter the invalid phone number in the Phone textfield</t>
+  </si>
+  <si>
+    <t>Phone no - 9890909808809890099</t>
+  </si>
+  <si>
+    <t>The Phone textfield should not accept invalid or more than 10 digits phone number</t>
+  </si>
+  <si>
+    <t>The Phone textfield is accepting invalid or more than 10 digits phone number</t>
+  </si>
+  <si>
+    <t>TC_CUPF_019</t>
+  </si>
+  <si>
+    <t>Verify if the Address textfield of contact us page is accepting invalid address or not</t>
   </si>
   <si>
     <r>
@@ -929,22 +970,22 @@
     </r>
   </si>
   <si>
-    <t>Verify if the add button's color is changed to red or not whenever the user hovers the mouse on it</t>
-  </si>
-  <si>
-    <t>The add button color should be changed to red whenever the user hovers the mouse on it.</t>
-  </si>
-  <si>
-    <t>The add button color is changed to red whenever the user hovers the mouse on it.</t>
-  </si>
-  <si>
-    <t>TC_GUI_006</t>
-  </si>
-  <si>
-    <t>To verify Search textfield placeholder</t>
-  </si>
-  <si>
-    <t>Verify that the Search functionality has a placeholder or not</t>
+    <t>1. Enter the invalid address in the Address textfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address - hsysg hn0 90 </t>
+  </si>
+  <si>
+    <t>The Address textfield should not accept invalid address</t>
+  </si>
+  <si>
+    <t>The Address textfield is accepting invalid address</t>
+  </si>
+  <si>
+    <t>TC_CUPF_020</t>
+  </si>
+  <si>
+    <t>Verify if the message textfield of contact us page is accepting invalid message or not</t>
   </si>
   <si>
     <r>
@@ -964,22 +1005,31 @@
     </r>
   </si>
   <si>
-    <t>Check if the search textfield has a placeholder or not</t>
-  </si>
-  <si>
-    <t>The Search text field should have a placeholder - Search for Products...</t>
-  </si>
-  <si>
-    <t>The Search text field is having a placeholder - Search for Products...</t>
-  </si>
-  <si>
-    <t>TC_GUI_007</t>
-  </si>
-  <si>
-    <t>To verify Search textfield border color</t>
-  </si>
-  <si>
-    <t>Verify the border color of search textfield</t>
+    <t>1. Enter the invalid message in the message textfield</t>
+  </si>
+  <si>
+    <t>message - ujjj to 9078 for</t>
+  </si>
+  <si>
+    <t>The message textfield should not accept invalid message</t>
+  </si>
+  <si>
+    <t>The message textfield is accepting invalid message</t>
+  </si>
+  <si>
+    <t>GUI - TESTING</t>
+  </si>
+  <si>
+    <t>Test performed by</t>
+  </si>
+  <si>
+    <t>TC_GUI_001</t>
+  </si>
+  <si>
+    <t>To verify product image clickability</t>
+  </si>
+  <si>
+    <t>verify if products image on homepage is clickable or not</t>
   </si>
   <si>
     <r>
@@ -999,6 +1049,207 @@
     </r>
   </si>
   <si>
+    <t>1. click on any product's image on the homepage</t>
+  </si>
+  <si>
+    <t>The product's image on the homepage should be clickable</t>
+  </si>
+  <si>
+    <t>The product's image on the homepage is not clickable except 4 most purchased products</t>
+  </si>
+  <si>
+    <t>TC_GUI_002</t>
+  </si>
+  <si>
+    <t>To verify spelling of the content</t>
+  </si>
+  <si>
+    <t>verify the spelling of the content on the homepage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>The spelling of the content on the homepage should be correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The spelling of Purchased is incorrect, in Most Purchased heading it is showing - Purchesed </t>
+  </si>
+  <si>
+    <t>TC_GUI_003</t>
+  </si>
+  <si>
+    <t>To verify about us button</t>
+  </si>
+  <si>
+    <t>verify about us button redirecting the user to another page or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>The about us page should be displayed whenever the user clicks on about us button</t>
+  </si>
+  <si>
+    <t>The about us page is not displayed it shows the same page</t>
+  </si>
+  <si>
+    <t>TC_GUI_004</t>
+  </si>
+  <si>
+    <t>To verify the readability of the content</t>
+  </si>
+  <si>
+    <t>Verify if the products name is readable or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The products name should be readable </t>
+  </si>
+  <si>
+    <t>Some products name font size is very small and blurred which is not readable by the user</t>
+  </si>
+  <si>
+    <t>TC_GUI_005</t>
+  </si>
+  <si>
+    <t>To verify the add button color</t>
+  </si>
+  <si>
+    <t>Verify if the add button's color is changed or not whenever the user hovers the mouse to it</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Verify if the add button's color is changed to red or not whenever the user hovers the mouse on it</t>
+  </si>
+  <si>
+    <t>The add button color should be changed to red whenever the user hovers the mouse on it.</t>
+  </si>
+  <si>
+    <t>The add button color is changed to red whenever the user hovers the mouse on it.</t>
+  </si>
+  <si>
+    <t>TC_GUI_006</t>
+  </si>
+  <si>
+    <t>To verify Search textfield placeholder</t>
+  </si>
+  <si>
+    <t>Verify that the Search functionality has a placeholder or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>Check if the search textfield has a placeholder or not</t>
+  </si>
+  <si>
+    <t>The Search text field should have a placeholder - Search for Products...</t>
+  </si>
+  <si>
+    <t>The Search text field is having a placeholder - Search for Products...</t>
+  </si>
+  <si>
+    <t>TC_GUI_007</t>
+  </si>
+  <si>
+    <t>To verify Search textfield border color</t>
+  </si>
+  <si>
+    <t>Verify the border color of search textfield</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
     <t>1. Verify the border color of search textfield before clicking on it
 2. Verify the border color of search textfield after clicking on it</t>
   </si>
@@ -1201,6 +1452,192 @@
   <si>
     <t>The logo of bigbasket 
 is correct -</t>
+  </si>
+  <si>
+    <t>TC_GUI_014</t>
+  </si>
+  <si>
+    <t>To verify the product image quality</t>
+  </si>
+  <si>
+    <t>Verify the product image quality is good or bad</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>The product's image quality should be good</t>
+  </si>
+  <si>
+    <t>The product's image quality is very bad in case of some products the user is not able to recognize what type of product it is.</t>
+  </si>
+  <si>
+    <t>TC_GUI_015</t>
+  </si>
+  <si>
+    <t>To verify the clickability of the Contact us button</t>
+  </si>
+  <si>
+    <t>Verify if the Contact us button is clickable or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>The contact us button should be clickable</t>
+  </si>
+  <si>
+    <t>The contact us button is clickable</t>
+  </si>
+  <si>
+    <t>TC_GUI_016</t>
+  </si>
+  <si>
+    <t>To verify the compatibility of the web application</t>
+  </si>
+  <si>
+    <t>Verify if the web application has a responsive design or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the URL in the android mobile.
+2. Check the web application is responsive or not </t>
+  </si>
+  <si>
+    <t>The web application should properly fits in the screen of the mobile and all the buttons, features should be displayed in their respective positions</t>
+  </si>
+  <si>
+    <t>The web application is not able to fit in the screen of the mobile and some features is not displayed in their respective positions</t>
+  </si>
+  <si>
+    <t>TC_GUI_017</t>
+  </si>
+  <si>
+    <t>Verify if the web application is able to run in other browser also or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. Open the URL in </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>yahoo.com</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> browser
+2. Check if the web application is open in yahoo browser or not</t>
+    </r>
+  </si>
+  <si>
+    <t>The web application should be compatible enough to run in the popular browsers</t>
+  </si>
+  <si>
+    <t>The web application is not compatible enough to run even in the popular browsers, the web application is not opening in the yahoo browser</t>
+  </si>
+  <si>
+    <t>TC_GUI_018</t>
+  </si>
+  <si>
+    <t>To verify the performance of the web application</t>
+  </si>
+  <si>
+    <t>Verify the performance of the web application whether the user is able to navigate through features smoothly or not</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Open the URL in the android mobile.
+2. Check the load time,speed, and reliability of the web application</t>
+  </si>
+  <si>
+    <t>The web application should be fast,reliable and stable enough to ensure smooth navigation between all the features</t>
+  </si>
+  <si>
+    <t>The web application is not reliable and stable enough to ensure smooth navigation between all the features many features are blocking the customers to proceed further</t>
+  </si>
+  <si>
+    <t>BUG REPORT</t>
   </si>
   <si>
     <t>Bug ID</t>
@@ -1359,6 +1796,9 @@
   </si>
   <si>
     <t>bb_005</t>
+  </si>
+  <si>
+    <t>When the user enters apple in the search textfield, apple is displayed but when user enters another item - orange is not displayed</t>
   </si>
   <si>
     <r>
@@ -1695,6 +2135,316 @@
   </si>
   <si>
     <t>UI Defect, The products name which have small font size is blurred and not readable</t>
+  </si>
+  <si>
+    <t>bb_016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on DEALS OF THE WEEK button
+3. check if it is redirected the user to deals of the week page or not</t>
+  </si>
+  <si>
+    <t>Defect, When the user clicks on the DEALS OF THE WEEK button the web application is reloading but not displaying the deals of the week page</t>
+  </si>
+  <si>
+    <t>bb_017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. Try to recognize the product by looking at the image</t>
+  </si>
+  <si>
+    <t>UI Defect, The product's image quality is very bad in case of some products the user is not able to recognize what type of product it is.</t>
+  </si>
+  <si>
+    <t>bb_018</t>
+  </si>
+  <si>
+    <t>The name textfield of contact us page is accepting invalid name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on contact us button
+3. Enter the invalid or inappropriate name in the name textfield</t>
+  </si>
+  <si>
+    <t>Defect,The name textfield is accepting invalid name</t>
+  </si>
+  <si>
+    <t>bb_019</t>
+  </si>
+  <si>
+    <t>The email textfield of contact us page is accepting invalid email id</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on contact us button
+3. Enter the invalid email id in the email textfield</t>
+  </si>
+  <si>
+    <t>Defect,The email textfield is accepting invalid email id</t>
+  </si>
+  <si>
+    <t>bb_020</t>
+  </si>
+  <si>
+    <t>The Phone textfield of contact us page is accepting invalid or more than 10 digits phone number</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on contact us button
+3. Enter the invalid phone number in the Phone textfield</t>
+  </si>
+  <si>
+    <t>Defect, The Phone textfield is accepting invalid or more than 10 digits phone number</t>
+  </si>
+  <si>
+    <t>bb_021</t>
+  </si>
+  <si>
+    <t>The Address textfield of contact us page is accepting invalid address</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on contact us button
+3. Enter the invalid address in the Address textfield</t>
+  </si>
+  <si>
+    <t>Defect, The Address textfield is accepting invalid address</t>
+  </si>
+  <si>
+    <t>bb_022</t>
+  </si>
+  <si>
+    <t>The message textfield of contact us page is accepting invalid message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL, application will be opened
+2. click on contact us button
+3. Enter the invalid message in the message textfield</t>
+  </si>
+  <si>
+    <t>Defect, The message textfield is accepting invalid message</t>
+  </si>
+  <si>
+    <t>bb_023</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter the URL in the android mobile, application will be opened
+2. Check the web application is responsive or not </t>
+  </si>
+  <si>
+    <t>Defect, The web application is not able to fit in the screen of the mobile and some features is not displayed in their respective positions</t>
+  </si>
+  <si>
+    <t>bb_024</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Enter the URL in the android mobile, application will be opened
+2. Check the load time,speed, and reliability of the web application</t>
+  </si>
+  <si>
+    <t>Defect, The web application is not reliable and stable enough to ensure smooth navigation between all the features many features are blocking the customers to proceed further</t>
+  </si>
+  <si>
+    <t>bb_025</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open the browser
+2. Enter the URL - </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://66405eedbcb7ce8c1a800ea6--timely-froyo-5c39a1.netlify.app/index.html</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">1. Enter the URL in </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>yahoo.com</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> browser
+2. Check if the web application is open in yahoo browser or not</t>
+    </r>
+  </si>
+  <si>
+    <t>Defect, The web application is not compatible enough to run even in the popular browsers, the web application is not opening in the yahoo browser</t>
+  </si>
+  <si>
+    <t>Browser - Chrome, Yahoo
+OS - Ubuntu 22.04.4 LTS
+Devices - Laptop and Android mobile</t>
   </si>
 </sst>
 </file>
@@ -1734,6 +2484,7 @@
     </font>
     <font>
       <b/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -1756,15 +2507,13 @@
     </font>
     <font/>
     <font>
-      <b/>
       <sz val="10.0"/>
-      <color theme="1"/>
+      <color rgb="FF171D1E"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF171D1E"/>
-      <name val="Arial"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1923,7 +2672,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1944,19 +2693,16 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1994,13 +2740,16 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2025,13 +2774,10 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2040,64 +2786,60 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,10 +2882,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1295400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1266825</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="438150" cy="438150"/>
     <xdr:pic>
@@ -2168,10 +2910,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1266825</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="438150" cy="438150"/>
     <xdr:pic>
@@ -2203,13 +2945,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>-38100</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2762250" cy="962025"/>
+    <xdr:ext cx="3009900" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2230,14 +2972,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2705100" cy="1095375"/>
+    <xdr:ext cx="2981325" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2258,14 +3000,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2495550" cy="1047750"/>
+    <xdr:ext cx="3057525" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image15.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2287,13 +3029,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3009900" cy="1047750"/>
+    <xdr:ext cx="3057525" cy="1485900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image20.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2315,13 +3057,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1095375"/>
+    <xdr:ext cx="3057525" cy="1485900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image23.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2343,13 +3085,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1095375"/>
+    <xdr:ext cx="3057525" cy="1352550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image16.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image25.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2371,13 +3113,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1152525"/>
+    <xdr:ext cx="3057525" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image15.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image12.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2399,13 +3141,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1095375"/>
+    <xdr:ext cx="2981325" cy="1352550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2427,13 +3169,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2924175" cy="1000125"/>
+    <xdr:ext cx="3057525" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image4.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2456,12 +3198,12 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3009900" cy="1152525"/>
+    <xdr:ext cx="3057525" cy="1485900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image9.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2481,15 +3223,15 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3133725" cy="1200150"/>
+    <xdr:ext cx="3009900" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image6.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image16.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2510,14 +3252,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3009900" cy="1152525"/>
+    <xdr:ext cx="3009900" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image19.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2538,14 +3280,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1047750"/>
+    <xdr:ext cx="3057525" cy="1352550"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image5.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image10.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2566,14 +3308,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3057525" cy="1000125"/>
+    <xdr:ext cx="3009900" cy="1104900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image17.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2594,18 +3336,298 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3009900" cy="1047750"/>
+    <xdr:ext cx="3057525" cy="1419225"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image13.png" title="Image"/>
+        <xdr:cNvPr id="0" name="image26.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3009900" cy="1200150"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3009900" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image11.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1504950</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3009900" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image8.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1514475</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3057525" cy="1485900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image18.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3057525" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image14.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3057525" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image7.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1181100" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image5.jpg" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2981325" cy="1543050"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image24.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2981325" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image22.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3057525" cy="1419225"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image21.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2828,7 +3850,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="17.5"/>
     <col customWidth="1" min="2" max="2" width="19.75"/>
-    <col customWidth="1" min="3" max="3" width="30.63"/>
+    <col customWidth="1" min="3" max="3" width="42.5"/>
     <col customWidth="1" min="4" max="4" width="6.88"/>
     <col customWidth="1" min="5" max="5" width="17.88"/>
     <col customWidth="1" min="6" max="6" width="16.38"/>
@@ -2948,7 +3970,7 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -2969,7 +3991,7 @@
       <c r="B12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -2990,7 +4012,7 @@
       <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3011,7 +4033,7 @@
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3032,7 +4054,7 @@
       <c r="B15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -3074,7 +4096,7 @@
       <c r="B17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3122,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="E19" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>7</v>
@@ -3135,7 +4157,7 @@
       <c r="B20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -3155,7 +4177,7 @@
       <c r="B21" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -3175,7 +4197,7 @@
       <c r="B22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -3255,7 +4277,7 @@
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -3275,7 +4297,7 @@
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -3295,7 +4317,7 @@
       <c r="B28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -3315,11 +4337,11 @@
       <c r="B29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E29" s="6">
         <v>1.0</v>
@@ -3335,11 +4357,11 @@
       <c r="B30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E30" s="6">
         <v>1.0</v>
@@ -3348,27 +4370,141 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="32">
-      <c r="A32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="A32" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="A35" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3381,579 +4517,576 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.25"/>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
     <col customWidth="1" min="2" max="2" width="29.88"/>
     <col customWidth="1" min="3" max="3" width="57.5"/>
     <col customWidth="1" min="4" max="4" width="34.13"/>
     <col customWidth="1" min="5" max="5" width="50.13"/>
-    <col customWidth="1" min="6" max="6" width="24.38"/>
+    <col customWidth="1" min="6" max="6" width="27.25"/>
     <col customWidth="1" min="7" max="7" width="37.5"/>
     <col customWidth="1" min="8" max="8" width="30.25"/>
     <col customWidth="1" min="9" max="9" width="11.88"/>
-    <col customWidth="1" min="10" max="10" width="9.63"/>
-    <col customWidth="1" min="11" max="11" width="15.5"/>
+    <col customWidth="1" min="10" max="10" width="10.5"/>
+    <col customWidth="1" min="11" max="11" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="C1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="A2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="A3" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
     </row>
     <row r="4">
-      <c r="A4" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="A4" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="A7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="A8" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
+      <c r="G12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>162</v>
+      <c r="A13" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J13" s="28"/>
       <c r="K13" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="15"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>178</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>168</v>
+        <v>179</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>170</v>
+        <v>181</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="15"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>173</v>
+        <v>184</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>175</v>
+        <v>186</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>177</v>
+        <v>188</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="3" t="s">
@@ -3961,76 +5094,202 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="A16" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="A17" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1"/>
@@ -4512,8 +5771,14 @@
     <hyperlink r:id="rId12" ref="D13"/>
     <hyperlink r:id="rId13" ref="D14"/>
     <hyperlink r:id="rId14" ref="D15"/>
+    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId16" ref="D17"/>
+    <hyperlink r:id="rId17" ref="D18"/>
+    <hyperlink r:id="rId18" ref="D19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
+    <hyperlink r:id="rId20" ref="D21"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4523,575 +5788,678 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.0"/>
     <col customWidth="1" min="2" max="2" width="36.38"/>
-    <col customWidth="1" min="3" max="3" width="35.13"/>
+    <col customWidth="1" min="3" max="3" width="36.0"/>
     <col customWidth="1" min="4" max="4" width="33.5"/>
     <col customWidth="1" min="5" max="5" width="21.75"/>
     <col customWidth="1" min="6" max="6" width="22.25"/>
     <col customWidth="1" min="7" max="7" width="24.5"/>
     <col customWidth="1" min="8" max="8" width="23.25"/>
-    <col customWidth="1" min="11" max="11" width="15.38"/>
+    <col customWidth="1" min="11" max="11" width="16.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="C1" s="34" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D1" s="35"/>
       <c r="E1" s="36"/>
     </row>
     <row r="2">
-      <c r="A2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="41"/>
-      <c r="K3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="A3" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="40"/>
+      <c r="K3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="41"/>
-      <c r="K4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="A4" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
+      <c r="A5" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="41"/>
-      <c r="K6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="42"/>
-      <c r="M6" s="40"/>
+      <c r="A6" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="41"/>
+      <c r="M6" s="39"/>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="A7" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="40"/>
+      <c r="K7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
+      <c r="A8" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="41"/>
-      <c r="K9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
+      <c r="A9" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J10" s="41"/>
-      <c r="K10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
+      <c r="A10" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
+      <c r="A11" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="40"/>
+      <c r="K11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>240</v>
+      <c r="A12" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>295</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="40"/>
+      <c r="K12" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>246</v>
+      <c r="A13" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>301</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>249</v>
+        <v>121</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>304</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J13" s="30"/>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="s">
-        <v>250</v>
+      <c r="A14" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>252</v>
+        <v>306</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>255</v>
+        <v>121</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J14" s="30"/>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>256</v>
+      <c r="A15" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>258</v>
+        <v>312</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>313</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="J15" s="30"/>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
+      <c r="A16" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="J16" s="30"/>
-      <c r="K16" s="43"/>
+      <c r="K16" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="A17" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="A18" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="A19" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>339</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="30"/>
+      <c r="K19" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="A20" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="30"/>
+      <c r="K20" s="23" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1"/>
@@ -5101,7 +6469,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="44"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="1"/>
       <c r="K21" s="1"/>
     </row>
@@ -5113,7 +6481,7 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="44"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="1"/>
       <c r="K22" s="1"/>
     </row>
@@ -5125,7 +6493,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="44"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="1"/>
       <c r="K23" s="1"/>
     </row>
@@ -5137,13 +6505,25 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="44"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="1"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5159,12 +6539,12 @@
       <formula>NOT(ISERROR(SEARCH(("Fail"),(I8))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I20">
+  <conditionalFormatting sqref="I3:I21">
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I20">
+  <conditionalFormatting sqref="I3:I21">
     <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH(("Fail"),(I3))))</formula>
     </cfRule>
@@ -5183,8 +6563,14 @@
     <hyperlink r:id="rId11" ref="D13"/>
     <hyperlink r:id="rId12" ref="D14"/>
     <hyperlink r:id="rId13" ref="D15"/>
+    <hyperlink r:id="rId14" ref="D16"/>
+    <hyperlink r:id="rId15" ref="D17"/>
+    <hyperlink r:id="rId16" ref="D18"/>
+    <hyperlink r:id="rId17" ref="D19"/>
+    <hyperlink r:id="rId18" ref="E19"/>
+    <hyperlink r:id="rId19" ref="D20"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -5194,10 +6580,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
@@ -5208,609 +6591,912 @@
     <col customWidth="1" min="6" max="6" width="31.5"/>
     <col customWidth="1" min="7" max="7" width="29.5"/>
     <col customWidth="1" min="9" max="9" width="16.0"/>
-    <col customWidth="1" min="10" max="10" width="19.63"/>
+    <col customWidth="1" min="10" max="10" width="23.13"/>
     <col customWidth="1" min="11" max="11" width="41.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" ht="91.5" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" ht="119.25" customHeight="1">
+      <c r="A3" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="49" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" ht="91.5" customHeight="1">
-      <c r="A3" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="C3" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="49"/>
+    </row>
+    <row r="4" ht="119.25" customHeight="1">
+      <c r="A4" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>278</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>282</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" ht="91.5" customHeight="1">
-      <c r="A4" s="46" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="C4" s="46" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" ht="119.25" customHeight="1">
+      <c r="A5" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="46" t="s">
-        <v>287</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" ht="91.5" customHeight="1">
-      <c r="A5" s="46" t="s">
-        <v>288</v>
-      </c>
-      <c r="B5" s="46" t="s">
+      <c r="C5" s="46" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K5" s="51"/>
+    </row>
+    <row r="6" ht="119.25" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>289</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>291</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" ht="91.5" customHeight="1">
-      <c r="A6" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B6" s="46" t="s">
+      <c r="C6" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" ht="119.25" customHeight="1">
+      <c r="A7" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" ht="91.5" customHeight="1">
-      <c r="A7" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="C7" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" ht="119.25" customHeight="1">
+      <c r="A8" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="E7" s="49" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" ht="91.5" customHeight="1">
-      <c r="A8" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="46" t="s">
+      <c r="C8" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" ht="119.25" customHeight="1">
+      <c r="A9" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>304</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>305</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" ht="91.5" customHeight="1">
-      <c r="A9" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="B9" s="46" t="s">
+      <c r="C9" s="46" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>393</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="H9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K9" s="52"/>
+    </row>
+    <row r="10" ht="119.25" customHeight="1">
+      <c r="A10" s="45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>311</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>312</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K9" s="56"/>
-    </row>
-    <row r="10" ht="91.5" customHeight="1">
-      <c r="A10" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="B10" s="46" t="s">
+      <c r="C10" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>398</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" ht="119.25" customHeight="1">
+      <c r="A11" s="45" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>317</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K10" s="41"/>
-    </row>
-    <row r="11" ht="91.5" customHeight="1">
-      <c r="A11" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="46" t="s">
+      <c r="C11" s="55" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>404</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="H11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" ht="119.25" customHeight="1">
+      <c r="A12" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="58" t="s">
-        <v>320</v>
-      </c>
-      <c r="D11" s="48" t="s">
+      <c r="C12" s="56" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>410</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="H12" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K12" s="40"/>
+    </row>
+    <row r="13" ht="119.25" customHeight="1">
+      <c r="A13" s="45" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>416</v>
+      </c>
+      <c r="F13" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K13" s="59"/>
+    </row>
+    <row r="14" ht="119.25" customHeight="1">
+      <c r="A14" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" ht="119.25" customHeight="1">
+      <c r="A15" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>423</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="56" t="s">
+        <v>425</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" ht="119.25" customHeight="1">
+      <c r="A16" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" ht="119.25" customHeight="1">
+      <c r="A17" s="45" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>432</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>434</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" ht="119.25" customHeight="1">
+      <c r="A18" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" ht="119.25" customHeight="1">
+      <c r="A19" s="45" t="s">
+        <v>441</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>442</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="F19" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K11" s="41"/>
-    </row>
-    <row r="12" ht="91.5" customHeight="1">
-      <c r="A12" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="46" t="s">
+      <c r="G19" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" ht="119.25" customHeight="1">
+      <c r="A20" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="B20" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>176</v>
-      </c>
-      <c r="G12" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" ht="91.5" customHeight="1">
-      <c r="A13" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="C20" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>448</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" ht="119.25" customHeight="1">
+      <c r="A21" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="59" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>332</v>
-      </c>
-      <c r="H13" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" ht="91.5" customHeight="1">
-      <c r="A14" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="46" t="s">
+      <c r="C21" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" ht="119.25" customHeight="1">
+      <c r="A22" s="45" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="58" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="59" t="s">
+      <c r="C22" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>458</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" ht="119.25" customHeight="1">
+      <c r="A23" s="45" t="s">
+        <v>460</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>462</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>463</v>
+      </c>
+      <c r="F23" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" ht="119.25" customHeight="1">
+      <c r="A24" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" ht="119.25" customHeight="1">
+      <c r="A25" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>334</v>
       </c>
-      <c r="E14" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>191</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" ht="91.5" customHeight="1">
-      <c r="A15" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="B15" s="46" t="s">
+      <c r="G25" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" ht="119.25" customHeight="1">
+      <c r="A26" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="58" t="s">
-        <v>338</v>
-      </c>
-      <c r="D15" s="59" t="s">
-        <v>339</v>
-      </c>
-      <c r="E15" s="46" t="s">
+      <c r="C26" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="45" t="s">
+        <v>476</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" ht="119.25" customHeight="1">
+      <c r="A27" s="45" t="s">
+        <v>478</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>341</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" ht="91.5" customHeight="1">
-      <c r="A16" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>345</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>346</v>
-      </c>
-      <c r="G16" s="52" t="s">
-        <v>347</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
+      <c r="G27" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I27" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="K27" s="30"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H20">
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3:H27">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH(("Fail"),(H2))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("Fail"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="D5"/>
-    <hyperlink r:id="rId5" ref="D6"/>
-    <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="D8"/>
-    <hyperlink r:id="rId8" ref="D9"/>
-    <hyperlink r:id="rId9" ref="D10"/>
-    <hyperlink r:id="rId10" ref="D11"/>
-    <hyperlink r:id="rId11" ref="D12"/>
-    <hyperlink r:id="rId12" ref="D13"/>
-    <hyperlink r:id="rId13" ref="D14"/>
-    <hyperlink r:id="rId14" ref="D15"/>
-    <hyperlink r:id="rId15" ref="D16"/>
+    <hyperlink r:id="rId1" ref="D3"/>
+    <hyperlink r:id="rId2" ref="D4"/>
+    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink r:id="rId4" ref="D6"/>
+    <hyperlink r:id="rId5" ref="D7"/>
+    <hyperlink r:id="rId6" ref="D8"/>
+    <hyperlink r:id="rId7" ref="D9"/>
+    <hyperlink r:id="rId8" ref="D10"/>
+    <hyperlink r:id="rId9" ref="D11"/>
+    <hyperlink r:id="rId10" ref="D12"/>
+    <hyperlink r:id="rId11" ref="D13"/>
+    <hyperlink r:id="rId12" ref="D14"/>
+    <hyperlink r:id="rId13" ref="D15"/>
+    <hyperlink r:id="rId14" ref="D16"/>
+    <hyperlink r:id="rId15" ref="D17"/>
+    <hyperlink r:id="rId16" ref="D18"/>
+    <hyperlink r:id="rId17" ref="D19"/>
+    <hyperlink r:id="rId18" ref="D20"/>
+    <hyperlink r:id="rId19" ref="D21"/>
+    <hyperlink r:id="rId20" ref="D22"/>
+    <hyperlink r:id="rId21" ref="D23"/>
+    <hyperlink r:id="rId22" ref="D24"/>
+    <hyperlink r:id="rId23" ref="D25"/>
+    <hyperlink r:id="rId24" ref="D26"/>
+    <hyperlink r:id="rId25" ref="D27"/>
+    <hyperlink r:id="rId26" ref="E27"/>
   </hyperlinks>
-  <drawing r:id="rId16"/>
+  <drawing r:id="rId27"/>
 </worksheet>
 </file>